--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.025.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D7476E-F175-4078-A132-0D6BC32100ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0B7FD4-E018-432C-8FF1-3781F2F7327A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.025.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0B7FD4-E018-432C-8FF1-3781F2F7327A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0641465-6FED-4AAA-8C9B-8F2D06D8B227}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.025.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0641465-6FED-4AAA-8C9B-8F2D06D8B227}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB4F631-CCA0-4402-975A-ED6692193795}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.025.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB4F631-CCA0-4402-975A-ED6692193795}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23F7B56-AB5A-4E49-A223-FF45055E51EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.025.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23F7B56-AB5A-4E49-A223-FF45055E51EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD749EEC-3C8F-484C-B0CB-28C6E7585E0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.025.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD749EEC-3C8F-484C-B0CB-28C6E7585E0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94862610-B411-46FE-95D3-31B863CB0EA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.025.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94862610-B411-46FE-95D3-31B863CB0EA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9255CB-79AC-4569-AE9A-A1E054992755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.025.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9255CB-79AC-4569-AE9A-A1E054992755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F789A6F1-18AE-467F-9AFC-0AA77C20A471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>
